--- a/example.xlsx
+++ b/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\the tavern\School\13th Grade\TNIE\Resiquimod Calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragbhat/PycharmProjects/Resiquimod Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A857D1-4E29-4D95-8CC4-9519B5403329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E67D9-7858-CB49-8E02-F562254D4520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7523CA5-ED54-42B2-9640-CB2F5E95C523}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{D7523CA5-ED54-42B2-9640-CB2F5E95C523}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Sheet" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +189,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +234,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,32 +573,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E9815-8B72-4A54-A089-463BEBCF93D8}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29.5" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +621,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -658,7 +668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -705,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,7 +762,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,7 +809,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,7 +856,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -893,7 +903,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,7 +950,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -987,7 +997,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1091,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D13" s="2">
         <v>144</v>
       </c>
@@ -1169,7 +1179,10 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1179,650 +1192,625 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="D19" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="K19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="L19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="O19" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="P19" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="O20" s="2">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D22" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="F22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="G22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="H22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="I22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="J22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="K22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="L22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="M22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="N22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="O22" s="2">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="P22" s="2">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D23" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="F23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="G23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="H23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="I23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="J23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="K23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="L23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="M23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="N23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="O23" s="2">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="P23" s="2">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D24" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="F24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="G24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="H24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="I24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="J24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="K24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="L24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="M24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="N24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="O24" s="2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="P24" s="2">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D25" s="2">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O25" s="2">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P25" s="2">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D26" s="2">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="F26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="G26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="H26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="I26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="J26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="K26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="L26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="M26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="N26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="O26" s="2">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="P26" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D27" s="2">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="E27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O27" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P27" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="2">
-        <v>48</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="2">
-        <v>120</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="2">
-        <v>144</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="4:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O32" s="5"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="4:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="4:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O35" s="5"/>
-      <c r="P35" s="7"/>
-    </row>
-    <row r="36" spans="4:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:16" x14ac:dyDescent="0.2">
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragbhat/PycharmProjects/Resiquimod Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0E67D9-7858-CB49-8E02-F562254D4520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3944A-038E-9743-8DD5-52BE3D785979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{D7523CA5-ED54-42B2-9640-CB2F5E95C523}"/>
   </bookViews>
@@ -89,15 +89,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>R848 SWNTs 1</t>
-  </si>
-  <si>
-    <t>R848 SWNTs 2</t>
-  </si>
-  <si>
-    <t>R848 SWNTs 3</t>
-  </si>
-  <si>
     <t>SWNT Control 1</t>
   </si>
   <si>
@@ -128,9 +119,6 @@
     <t>Absorption 808 nm</t>
   </si>
   <si>
-    <t>R8484 SWNTs 3</t>
-  </si>
-  <si>
     <t>SWNTs Control 1</t>
   </si>
   <si>
@@ -144,13 +132,25 @@
   </si>
   <si>
     <t>All of the headers you see must remain exactly the same.</t>
+  </si>
+  <si>
+    <t>Required (string)</t>
+  </si>
+  <si>
+    <t>[INSERT DRUG NAME] SWNTs 1</t>
+  </si>
+  <si>
+    <t>[INSERT DRUG NAME] SWNTs 2</t>
+  </si>
+  <si>
+    <t>[INSERT DRUG NAME] SWNTs 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -576,7 +582,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E16" sqref="E16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -632,40 +638,40 @@
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16" x14ac:dyDescent="0.2">
@@ -1181,7 +1187,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="D15" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1211,46 +1217,46 @@
     </row>
     <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>30</v>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="O16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="P16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.2">
@@ -1813,6 +1819,7 @@
       <c r="P47" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragbhat/PycharmProjects/Resiquimod Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3944A-038E-9743-8DD5-52BE3D785979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E81B2-D85F-884F-BC13-C53E524969B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{D7523CA5-ED54-42B2-9640-CB2F5E95C523}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Drug</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>[INSERT DRUG NAME] SWNTs 3</t>
+  </si>
+  <si>
+    <t>Only one space must remain between the last time row and the drug characteristic peak</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:G16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1199,6 +1202,9 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
